--- a/public/data/question_template_fr Wing_photo inserted_2.xlsx
+++ b/public/data/question_template_fr Wing_photo inserted_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seantsang/Documents/working/slf2024-game/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8A6B3-9AD4-EF48-A3FE-9243AEF85237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CD9D7-12E6-8D41-A30D-36B9730E2CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modern" sheetId="2" r:id="rId1"/>
@@ -1920,8 +1920,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="I14" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3004,8 +3004,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
